--- a/Python/src/17 Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python/src/17 Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -391,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="n">
-        <v>42570.3414771524</v>
+        <v>42570.49685118422</v>
       </c>
       <c r="B1" t="n">
         <v>42</v>

--- a/Python/src/17 Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python/src/17 Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -391,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="n">
-        <v>42570.49685118422</v>
+        <v>42620.4906245473</v>
       </c>
       <c r="B1" t="n">
         <v>42</v>
